--- a/September'21/04.09.2021/Bank Statement August-2021.xlsx
+++ b/September'21/04.09.2021/Bank Statement August-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -3472,6 +3472,30 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3496,12 +3520,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3521,24 +3539,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3890,7 +3890,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3944,71 +3944,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="WordArt 8"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1" noTextEdit="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3286125" y="485775"/>
-          <a:ext cx="2124075" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" fromWordArt="1" anchor="t" upright="1">
-          <a:prstTxWarp prst="textPlain">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 50000"/>
-            </a:avLst>
-          </a:prstTxWarp>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0"/>
-          <a:endParaRPr lang="en-US" sz="3600" u="sng" strike="sngStrike" kern="10" cap="small" spc="0">
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:round/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4073,7 +4008,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4440,70 +4375,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="373" t="s">
+      <c r="A1" s="381" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="373"/>
-      <c r="C1" s="373"/>
-      <c r="D1" s="373"/>
-      <c r="E1" s="373"/>
-      <c r="F1" s="373"/>
-      <c r="G1" s="373"/>
-      <c r="H1" s="373"/>
-      <c r="I1" s="373"/>
-      <c r="J1" s="373"/>
-      <c r="K1" s="373"/>
-      <c r="L1" s="373"/>
-      <c r="M1" s="373"/>
-      <c r="N1" s="373"/>
-      <c r="O1" s="373"/>
-      <c r="P1" s="373"/>
-      <c r="Q1" s="373"/>
-      <c r="R1" s="373"/>
+      <c r="B1" s="381"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="381"/>
+      <c r="F1" s="381"/>
+      <c r="G1" s="381"/>
+      <c r="H1" s="381"/>
+      <c r="I1" s="381"/>
+      <c r="J1" s="381"/>
+      <c r="K1" s="381"/>
+      <c r="L1" s="381"/>
+      <c r="M1" s="381"/>
+      <c r="N1" s="381"/>
+      <c r="O1" s="381"/>
+      <c r="P1" s="381"/>
+      <c r="Q1" s="381"/>
+      <c r="R1" s="381"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="374" t="s">
+      <c r="A2" s="382" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="374"/>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374"/>
-      <c r="F2" s="374"/>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374"/>
-      <c r="I2" s="374"/>
-      <c r="J2" s="374"/>
-      <c r="K2" s="374"/>
-      <c r="L2" s="374"/>
-      <c r="M2" s="374"/>
-      <c r="N2" s="374"/>
-      <c r="O2" s="374"/>
-      <c r="P2" s="374"/>
-      <c r="Q2" s="374"/>
-      <c r="R2" s="374"/>
+      <c r="B2" s="382"/>
+      <c r="C2" s="382"/>
+      <c r="D2" s="382"/>
+      <c r="E2" s="382"/>
+      <c r="F2" s="382"/>
+      <c r="G2" s="382"/>
+      <c r="H2" s="382"/>
+      <c r="I2" s="382"/>
+      <c r="J2" s="382"/>
+      <c r="K2" s="382"/>
+      <c r="L2" s="382"/>
+      <c r="M2" s="382"/>
+      <c r="N2" s="382"/>
+      <c r="O2" s="382"/>
+      <c r="P2" s="382"/>
+      <c r="Q2" s="382"/>
+      <c r="R2" s="382"/>
     </row>
     <row r="3" spans="1:25" s="70" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="383" t="s">
+      <c r="A3" s="389" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="384"/>
-      <c r="C3" s="384"/>
-      <c r="D3" s="384"/>
-      <c r="E3" s="384"/>
-      <c r="F3" s="384"/>
-      <c r="G3" s="384"/>
-      <c r="H3" s="384"/>
-      <c r="I3" s="384"/>
-      <c r="J3" s="384"/>
-      <c r="K3" s="384"/>
-      <c r="L3" s="384"/>
-      <c r="M3" s="384"/>
-      <c r="N3" s="384"/>
-      <c r="O3" s="384"/>
-      <c r="P3" s="384"/>
-      <c r="Q3" s="384"/>
-      <c r="R3" s="385"/>
+      <c r="B3" s="390"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="390"/>
+      <c r="G3" s="390"/>
+      <c r="H3" s="390"/>
+      <c r="I3" s="390"/>
+      <c r="J3" s="390"/>
+      <c r="K3" s="390"/>
+      <c r="L3" s="390"/>
+      <c r="M3" s="390"/>
+      <c r="N3" s="390"/>
+      <c r="O3" s="390"/>
+      <c r="P3" s="390"/>
+      <c r="Q3" s="390"/>
+      <c r="R3" s="391"/>
       <c r="T3" s="71"/>
       <c r="U3" s="72"/>
       <c r="V3" s="72"/>
@@ -4512,55 +4447,55 @@
       <c r="Y3" s="73"/>
     </row>
     <row r="4" spans="1:25" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="375" t="s">
+      <c r="A4" s="383" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="377" t="s">
+      <c r="B4" s="385" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="377" t="s">
+      <c r="C4" s="385" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="371" t="s">
+      <c r="D4" s="379" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="371" t="s">
+      <c r="E4" s="379" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="371" t="s">
+      <c r="F4" s="379" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="371" t="s">
+      <c r="G4" s="379" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="371" t="s">
+      <c r="H4" s="379" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="371" t="s">
+      <c r="I4" s="379" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="371" t="s">
+      <c r="J4" s="379" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="386" t="s">
+      <c r="K4" s="392" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="379" t="s">
+      <c r="L4" s="371" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="388" t="s">
+      <c r="M4" s="373" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="390" t="s">
+      <c r="N4" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="392" t="s">
+      <c r="O4" s="377" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="379" t="s">
+      <c r="P4" s="371" t="s">
         <v>169</v>
       </c>
-      <c r="Q4" s="381" t="s">
+      <c r="Q4" s="387" t="s">
         <v>115</v>
       </c>
       <c r="R4" s="257" t="s">
@@ -4573,23 +4508,23 @@
       <c r="X4" s="72"/>
     </row>
     <row r="5" spans="1:25" s="73" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="376"/>
-      <c r="B5" s="378"/>
-      <c r="C5" s="378"/>
-      <c r="D5" s="372"/>
-      <c r="E5" s="372"/>
-      <c r="F5" s="372"/>
-      <c r="G5" s="372"/>
-      <c r="H5" s="372"/>
-      <c r="I5" s="372"/>
-      <c r="J5" s="372"/>
-      <c r="K5" s="387"/>
-      <c r="L5" s="380"/>
-      <c r="M5" s="389"/>
-      <c r="N5" s="391"/>
-      <c r="O5" s="393"/>
-      <c r="P5" s="380"/>
-      <c r="Q5" s="382"/>
+      <c r="A5" s="384"/>
+      <c r="B5" s="386"/>
+      <c r="C5" s="386"/>
+      <c r="D5" s="380"/>
+      <c r="E5" s="380"/>
+      <c r="F5" s="380"/>
+      <c r="G5" s="380"/>
+      <c r="H5" s="380"/>
+      <c r="I5" s="380"/>
+      <c r="J5" s="380"/>
+      <c r="K5" s="393"/>
+      <c r="L5" s="372"/>
+      <c r="M5" s="374"/>
+      <c r="N5" s="376"/>
+      <c r="O5" s="378"/>
+      <c r="P5" s="372"/>
+      <c r="Q5" s="388"/>
       <c r="R5" s="258" t="s">
         <v>31</v>
       </c>
@@ -7521,14 +7456,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7541,6 +7468,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12138,8 +12073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12896,9 +12831,9 @@
   </sheetPr>
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
+      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14621,8 +14556,7 @@
   <ignoredErrors>
     <ignoredError sqref="B8:B10 B15 B17" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
